--- a/biology/Médecine/Eduard_Bloch/Eduard_Bloch.xlsx
+++ b/biology/Médecine/Eduard_Bloch/Eduard_Bloch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eduard Bloch (30 janvier 1872 – 1er juin 1945) est un médecin juif autrichien, pratiquant à Linz en Autriche. Jusqu'en 1907, le Dr Bloch est le médecin de la famille d'Hitler. Plus tard, après l'annexion de l'Autriche par les nazis, Hitler lui assurera une protection spéciale[1] le temps qu'il émigre aux États-Unis.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eduard Bloch (30 janvier 1872 – 1er juin 1945) est un médecin juif autrichien, pratiquant à Linz en Autriche. Jusqu'en 1907, le Dr Bloch est le médecin de la famille d'Hitler. Plus tard, après l'annexion de l'Autriche par les nazis, Hitler lui assurera une protection spéciale le temps qu'il émigre aux États-Unis.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Jeunesse et débuts professionnels</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eduard Bloch est né à Frauenberg (aujourd'hui Hluboká nad Vltavou en République tchèque)[2]. Il étudie la médecine à Prague, puis sert comme médecin-officier dans l'armée autrichienne. En 1899, il est en poste à Linz, où il ouvre, en 1901 après sa démobilisation, un cabinet médical privé au 12 Landstrasse, dans une maison au style baroque, qui sert aussi d'habitation pour lui et sa petite famille: sa femme Emilie (née Kafka) et leur fille Gertrude (Trude), née en 1903.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eduard Bloch est né à Frauenberg (aujourd'hui Hluboká nad Vltavou en République tchèque). Il étudie la médecine à Prague, puis sert comme médecin-officier dans l'armée autrichienne. En 1899, il est en poste à Linz, où il ouvre, en 1901 après sa démobilisation, un cabinet médical privé au 12 Landstrasse, dans une maison au style baroque, qui sert aussi d'habitation pour lui et sa petite famille: sa femme Emilie (née Kafka) et leur fille Gertrude (Trude), née en 1903.
 Selon Ernst Koref (en) (1891-1988), qui sera maire de Linz après la guerre, le Dr Bloch est particulièrement apprécié par ses patients, principalement par ceux des classes sociales inférieures et les indigents. Il est connu pour se déplacer, même au milieu de la nuit, pour visiter ses malades, en utilisant pour ses visites son hansom cab et portant un ostensible chapeau à large bord. Comme la plupart des Juifs de Linz, la famille Bloch est parfaitement assimilée.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Docteur de la famille d'Hitler</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier membre de la  famille Hitler que le Dr Bloch va voir est le jeune Adolf. En 1904, Hitler, âgé alors de 14-15 ans, est sérieusement malade et est alité avec une infection pulmonaire. Pour cette raison, Hitler est autorisé à abandonner ses études à l'école et à rester chez lui. Cependant, plus tard, en consultant le dossier médical d'Hitler, Eduard Bloch affirmera qu'il ne l'a alors soigné que pour des maladies bénignes, rhumes ou angines, et qu'Hitler n'était ni robuste ni chétif. Il affirmera aussi qu'Hitler n'a jamais eu aucune maladie grave quelle qu'elle soit, et encore moins de maladie pulmonaire[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier membre de la  famille Hitler que le Dr Bloch va voir est le jeune Adolf. En 1904, Hitler, âgé alors de 14-15 ans, est sérieusement malade et est alité avec une infection pulmonaire. Pour cette raison, Hitler est autorisé à abandonner ses études à l'école et à rester chez lui. Cependant, plus tard, en consultant le dossier médical d'Hitler, Eduard Bloch affirmera qu'il ne l'a alors soigné que pour des maladies bénignes, rhumes ou angines, et qu'Hitler n'était ni robuste ni chétif. Il affirmera aussi qu'Hitler n'a jamais eu aucune maladie grave quelle qu'elle soit, et encore moins de maladie pulmonaire.
 En 1907, la mère d'Hitler, Klara Hitler, est diagnostiquée avec un cancer du sein. Elle meurt le 21 décembre dans de grandes souffrances, qui nécessitent des sédatifs souvent donnés par Eduard Bloch. En raison de la situation économique de la famille d'Hitler à cette époque, Eduard Bloch a travaillé en réduisant ses honoraires, et même parfois sans se faire payer. Hitler qui a alors 18 ans, lui accorde sa gratitude éternelle (« Ich werde Ihnen ewig dankbar sein » soit en français « Je vous serai éternellement reconnaissant »). Il le confirmera dans une carte postale de 1908 écrite à Eduard Bloch. Le jeune Hitler exprimera aussi sa gratitude et son respect en offrant à Bloch un de ses tableaux, qui, d'après la fille du médecin, Gertrude Kren, a été perdu lors des différents déménagements. Même en 1937, Hitler se renseigne sur la situation du Dr Bloch et l'appelle Edeljude (« noble juif »).
 Eduard Bloch aussi a apparemment une certaine affection pour la famille d'Hitler, ce qui va lui servir dans le futur.
 </t>
@@ -576,12 +592,14 @@
           <t>Émigration aux États-Unis</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Après l'Anschluss, l'annexion de l'Autriche par le Troisième Reich, en 1938, la vie devient très difficile pour les Juifs autrichiens. Le cabinet du Dr Bloch est fermé le 1er octobre 1938. La fille et le gendre d'Eduard Bloch, son jeune assistant, le Dr Franz Kren (né en 1893 en Autriche, décédé en 1976 aux États-Unis), émigrent vers les États-Unis.
 Bloch, qui a alors 66 ans, écrit à Hitler pour lui demander de l'aide. En réponse, il est mis sous la protection spéciale de la Gestapo. C'est le seul Juif de Linz avec ce statut. Il reste dans sa maison avec sa femme, sans être importuné, jusqu'à ce que toutes les formalités pour son émigration aux États-Unis soient réglées.
-Sans aucune ingérence des autorités, le couple vend sa maison pour une somme assez importante. Cependant, ils ne sont autorisés à sortir d'Autriche que la somme de 16 marks; normalement pour les Juifs, la somme maximale était fixée à 10 marks[4].
-En 1940, Eduard Bloch émigre et s'installe à New York, dans le Bronx, au 2755 Creston Avenue, mais il ne peut exercer en tant que médecin car son diplôme médical n'est pas reconnu. Il meurt d'un cancer de l'estomac à 73 ans en 1945, pratiquement un mois après la mort d'Hitler. Il est enterré au cimetière juif Beth David, section D, bloc 3, à Elmont, New York[5],[6].
+Sans aucune ingérence des autorités, le couple vend sa maison pour une somme assez importante. Cependant, ils ne sont autorisés à sortir d'Autriche que la somme de 16 marks; normalement pour les Juifs, la somme maximale était fixée à 10 marks.
+En 1940, Eduard Bloch émigre et s'installe à New York, dans le Bronx, au 2755 Creston Avenue, mais il ne peut exercer en tant que médecin car son diplôme médical n'est pas reconnu. Il meurt d'un cancer de l'estomac à 73 ans en 1945, pratiquement un mois après la mort d'Hitler. Il est enterré au cimetière juif Beth David, section D, bloc 3, à Elmont, New York,.
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Interviews et mémoires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1941 et en 1943 Eduard Bloch est interrogé par l'OSS (Office of Strategic Services), l'ancêtre de la CIA (Central Intelligence Agency), qui désire obtenir des informations sur la jeunesse d'Hitler.
 Il publie aussi ses mémoires sur sa rencontre avec celui qui deviendra plus tard le "Führer", dans la revue Collier's Weekly dans lesquelles il fait un tableau remarquablement positif du jeune Hitler, affirmant qu'il se comportait très correctement et qu'il n'était pas un voyou : 
@@ -647,9 +667,11 @@
           <t>Œuvres sur Eduard Bloch</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En dépit de l'affection évidente qu'Hitler montrait pour Eduard Bloch, l'historien américain Rudolph Binion croit qu'il fut l'un des facteurs contribuant à l'antisémitisme d'Hitler, qui conduisit plus tard à la Shoah[7]. À l'opposé, l'historienne autrichienne Brigitte Hamann soutient que l'antisémitisme d'Hitler s'est forgé plus tard, durant les années à Vienne du futur dictateur.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En dépit de l'affection évidente qu'Hitler montrait pour Eduard Bloch, l'historien américain Rudolph Binion croit qu'il fut l'un des facteurs contribuant à l'antisémitisme d'Hitler, qui conduisit plus tard à la Shoah. À l'opposé, l'historienne autrichienne Brigitte Hamann soutient que l'antisémitisme d'Hitler s'est forgé plus tard, durant les années à Vienne du futur dictateur.
 Hedda Wagner (de) (1876-1950), autrice et militante autrichienne pour les droits des femmes et connaissance d'Eduard Bloch (elle vécut à Linz), écrivit un livre qui lui est dédié.
 Le roman 1940 de l'écrivain américain Jay Neugeboren (en) (né en 1938) se passe dans le Bronx et traite d'évènements autour d'Eduard Bloch.
 </t>
